--- a/others/fund_table.xlsx
+++ b/others/fund_table.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\eosio_tipuser_contracts\others\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143C403C-CB2F-4D64-A41F-8A797D9817E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8968DB6F-FA15-4B02-803D-E5403531B1DF}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>token_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>contract_ac</t>
-  </si>
-  <si>
-    <t>balance</t>
   </si>
   <si>
     <t>TABLE: fund
@@ -43,20 +31,32 @@
     <t>eosio.token</t>
   </si>
   <si>
-    <t>9.0000 EOS</t>
-  </si>
-  <si>
-    <t>tokenfutbol</t>
-  </si>
-  <si>
-    <t>1.0000 FUTBOL</t>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>tg_id</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>FUTBOL</t>
+  </si>
+  <si>
+    <t>tokenfutbol1</t>
+  </si>
+  <si>
+    <t>symbol_name</t>
+  </si>
+  <si>
+    <t>symbol_precision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -190,46 +190,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -292,7 +309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -344,7 +361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -538,75 +555,95 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0357F93A-301E-4F10-8FB0-813062A02C5F}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13">
+        <v>123124</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>90000</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>1397703940</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="13">
+        <v>321312213</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2.14792445313203E+16</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>7</v>
+      <c r="E6" s="13">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
